--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW35.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CubeA-HW35.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="CubeA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1084,7 @@
         <v>0.9947379466564985</v>
       </c>
       <c r="I13">
-        <v>0.9947087580526031</v>
+        <v>0.9947087580526029</v>
       </c>
       <c r="J13">
         <v>0.9941770518350174</v>
@@ -1202,10 +1202,60 @@
         <v>0.9779147752104449</v>
       </c>
       <c r="O15">
-        <v>0.9917731065300172</v>
+        <v>0.9917731065300173</v>
       </c>
       <c r="P15">
-        <v>0.9919317152281451</v>
+        <v>0.9919317152281452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9281321562220225</v>
+      </c>
+      <c r="D16">
+        <v>1.096363831534633</v>
+      </c>
+      <c r="E16">
+        <v>0.9768042872944713</v>
+      </c>
+      <c r="F16">
+        <v>1.014241451521715</v>
+      </c>
+      <c r="G16">
+        <v>0.9281321562220225</v>
+      </c>
+      <c r="H16">
+        <v>1.096363831534633</v>
+      </c>
+      <c r="I16">
+        <v>0.9635793264604577</v>
+      </c>
+      <c r="J16">
+        <v>1.014241451521715</v>
+      </c>
+      <c r="K16">
+        <v>0.9698176992801386</v>
+      </c>
+      <c r="L16">
+        <v>1.057161961425036</v>
+      </c>
+      <c r="M16">
+        <v>0.9281321562220225</v>
+      </c>
+      <c r="N16">
+        <v>1.036584059414552</v>
+      </c>
+      <c r="O16">
+        <v>1.00388543164321</v>
+      </c>
+      <c r="P16">
+        <v>1.002542770657524</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9281321562220225</v>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW35.xlsx
@@ -1087,7 +1087,7 @@
         <v>0.9947379466564985</v>
       </c>
       <c r="I13">
-        <v>0.9947087580526029</v>
+        <v>0.9947087580526031</v>
       </c>
       <c r="J13">
         <v>0.9941770518350174</v>
@@ -1205,10 +1205,10 @@
         <v>0.9779147752104449</v>
       </c>
       <c r="O15">
-        <v>0.9917731065300173</v>
+        <v>0.9917731065300172</v>
       </c>
       <c r="P15">
-        <v>0.9919317152281452</v>
+        <v>0.9919317152281451</v>
       </c>
     </row>
     <row r="16" spans="1:16">

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8126359999999988</v>
+        <v>0.9281321562220225</v>
       </c>
       <c r="D10">
-        <v>1.264264</v>
+        <v>1.096363831534633</v>
       </c>
       <c r="E10">
-        <v>0.9262240000000009</v>
+        <v>0.9768042872944713</v>
       </c>
       <c r="F10">
-        <v>1.053563999999999</v>
+        <v>1.014241451521715</v>
       </c>
       <c r="G10">
-        <v>0.8126359999999988</v>
+        <v>0.9281321562220225</v>
       </c>
       <c r="H10">
-        <v>1.264264</v>
+        <v>1.096363831534633</v>
       </c>
       <c r="I10">
-        <v>0.9045520000000002</v>
+        <v>0.9635793264604577</v>
       </c>
       <c r="J10">
-        <v>1.044599999999997</v>
+        <v>1.014241451521715</v>
       </c>
       <c r="K10">
-        <v>0.9328960000000011</v>
+        <v>0.9698176992801386</v>
       </c>
       <c r="L10">
-        <v>1.154224</v>
+        <v>1.057161961425036</v>
       </c>
       <c r="M10">
-        <v>0.8126359999999988</v>
+        <v>0.9281321562220225</v>
       </c>
       <c r="N10">
-        <v>1.095244</v>
+        <v>1.036584059414552</v>
       </c>
       <c r="O10">
-        <v>1.014172</v>
+        <v>1.00388543164321</v>
       </c>
       <c r="P10">
-        <v>1.01162</v>
+        <v>1.002542770657524</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7</v>
+        <v>0.8992523070443693</v>
       </c>
       <c r="D11">
-        <v>1.43</v>
+        <v>1.137092125381715</v>
       </c>
       <c r="E11">
-        <v>0.88</v>
+        <v>0.9639097732843847</v>
       </c>
       <c r="F11">
-        <v>1.09</v>
+        <v>1.024921279554959</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0.8992523070443693</v>
       </c>
       <c r="H11">
-        <v>1.43</v>
+        <v>1.137092125381715</v>
       </c>
       <c r="I11">
-        <v>0.85</v>
+        <v>0.9446261236138204</v>
       </c>
       <c r="J11">
-        <v>1.070687500000001</v>
+        <v>1.026807574317993</v>
       </c>
       <c r="K11">
-        <v>0.9</v>
+        <v>0.9563097407852235</v>
       </c>
       <c r="L11">
-        <v>1.25</v>
+        <v>1.085497031555742</v>
       </c>
       <c r="M11">
-        <v>0.7</v>
+        <v>0.8992523070443693</v>
       </c>
       <c r="N11">
-        <v>1.155</v>
+        <v>1.05050094933305</v>
       </c>
       <c r="O11">
-        <v>1.025</v>
+        <v>1.006293871316357</v>
       </c>
       <c r="P11">
-        <v>1.0213359375</v>
+        <v>1.004801994442276</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8259820990464004</v>
+        <v>0.8997916384301948</v>
       </c>
       <c r="D12">
-        <v>1.247448305459198</v>
+        <v>1.136299958894482</v>
       </c>
       <c r="E12">
-        <v>0.9279095173120047</v>
+        <v>0.9641346366821307</v>
       </c>
       <c r="F12">
-        <v>1.0497095716864</v>
+        <v>1.024759567363152</v>
       </c>
       <c r="G12">
-        <v>0.8259820990464004</v>
+        <v>0.8997916384301948</v>
       </c>
       <c r="H12">
-        <v>1.247448305459198</v>
+        <v>1.136299958894482</v>
       </c>
       <c r="I12">
-        <v>0.9101984391168084</v>
+        <v>0.9448608516732403</v>
       </c>
       <c r="J12">
-        <v>1.039216147968002</v>
+        <v>1.026676126268792</v>
       </c>
       <c r="K12">
-        <v>0.9392661286912012</v>
+        <v>0.9564495514641084</v>
       </c>
       <c r="L12">
-        <v>1.143353453977598</v>
+        <v>1.085056525735479</v>
       </c>
       <c r="M12">
-        <v>0.8259820990464004</v>
+        <v>0.8997916384301948</v>
       </c>
       <c r="N12">
-        <v>1.087678911385601</v>
+        <v>1.050217297788306</v>
       </c>
       <c r="O12">
-        <v>1.012762373376001</v>
+        <v>1.00624645034249</v>
       </c>
       <c r="P12">
-        <v>1.010385457907201</v>
+        <v>1.004753607063947</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.994567703309683</v>
+        <v>0.8994271930749084</v>
       </c>
       <c r="D13">
-        <v>0.9947379466564985</v>
+        <v>1.136914496889482</v>
       </c>
       <c r="E13">
-        <v>0.9956304470182653</v>
+        <v>0.9639596816879765</v>
       </c>
       <c r="F13">
-        <v>0.9955278668947709</v>
+        <v>1.024873319412216</v>
       </c>
       <c r="G13">
-        <v>0.994567703309683</v>
+        <v>0.8994271930749084</v>
       </c>
       <c r="H13">
-        <v>0.9947379466564985</v>
+        <v>1.136914496889482</v>
       </c>
       <c r="I13">
-        <v>0.9947087580526031</v>
+        <v>0.9446587769463682</v>
       </c>
       <c r="J13">
-        <v>0.9941770518350174</v>
+        <v>1.026789059025635</v>
       </c>
       <c r="K13">
-        <v>0.9943190310001944</v>
+        <v>0.9563291533961293</v>
       </c>
       <c r="L13">
-        <v>0.9960287672887106</v>
+        <v>1.085428933178238</v>
       </c>
       <c r="M13">
-        <v>0.994567703309683</v>
+        <v>0.8994271930749084</v>
       </c>
       <c r="N13">
-        <v>0.9951841968373819</v>
+        <v>1.050437089288729</v>
       </c>
       <c r="O13">
-        <v>0.9951159909698044</v>
+        <v>1.006293672766146</v>
       </c>
       <c r="P13">
-        <v>0.9949621965069679</v>
+        <v>1.004797576701369</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.004169490518929</v>
+        <v>0.8126359999999988</v>
       </c>
       <c r="D14">
-        <v>0.9829809258565029</v>
+        <v>1.264264</v>
       </c>
       <c r="E14">
-        <v>0.997742984701611</v>
+        <v>0.9262240000000009</v>
       </c>
       <c r="F14">
-        <v>0.9927421262941738</v>
+        <v>1.053563999999999</v>
       </c>
       <c r="G14">
-        <v>1.004169490518929</v>
+        <v>0.8126359999999988</v>
       </c>
       <c r="H14">
-        <v>0.9829809258565029</v>
+        <v>1.264264</v>
       </c>
       <c r="I14">
-        <v>1.000530331442368</v>
+        <v>0.9045520000000002</v>
       </c>
       <c r="J14">
-        <v>0.993145638405828</v>
+        <v>1.044599999999997</v>
       </c>
       <c r="K14">
-        <v>0.9984732363304983</v>
+        <v>0.9328960000000011</v>
       </c>
       <c r="L14">
-        <v>0.9873534667360533</v>
+        <v>1.154224</v>
       </c>
       <c r="M14">
-        <v>1.004169490518929</v>
+        <v>0.8126359999999988</v>
       </c>
       <c r="N14">
-        <v>0.990361955279057</v>
+        <v>1.095244</v>
       </c>
       <c r="O14">
-        <v>0.9944088818428041</v>
+        <v>1.014172</v>
       </c>
       <c r="P14">
-        <v>0.9946422750357455</v>
+        <v>1.01162</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.025918366506202</v>
+        <v>0.7</v>
       </c>
       <c r="D15">
-        <v>0.9506847712691185</v>
+        <v>1.43</v>
       </c>
       <c r="E15">
-        <v>1.005144779151771</v>
+        <v>0.88</v>
       </c>
       <c r="F15">
-        <v>0.9853445091929772</v>
+        <v>1.09</v>
       </c>
       <c r="G15">
-        <v>1.025918366506202</v>
+        <v>0.7</v>
       </c>
       <c r="H15">
-        <v>0.9506847712691185</v>
+        <v>1.43</v>
       </c>
       <c r="I15">
-        <v>1.011261434454208</v>
+        <v>0.85</v>
       </c>
       <c r="J15">
-        <v>0.986080596595171</v>
+        <v>1.070687500000001</v>
       </c>
       <c r="K15">
-        <v>1.00530962565929</v>
+        <v>0.9</v>
       </c>
       <c r="L15">
-        <v>0.965709638996423</v>
+        <v>1.25</v>
       </c>
       <c r="M15">
-        <v>1.025918366506202</v>
+        <v>0.7</v>
       </c>
       <c r="N15">
-        <v>0.9779147752104449</v>
+        <v>1.155</v>
       </c>
       <c r="O15">
-        <v>0.9917731065300172</v>
+        <v>1.025</v>
       </c>
       <c r="P15">
-        <v>0.9919317152281451</v>
+        <v>1.0213359375</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9281321562220225</v>
+        <v>0.8259820990464004</v>
       </c>
       <c r="D16">
-        <v>1.096363831534633</v>
+        <v>1.247448305459198</v>
       </c>
       <c r="E16">
-        <v>0.9768042872944713</v>
+        <v>0.9279095173120047</v>
       </c>
       <c r="F16">
-        <v>1.014241451521715</v>
+        <v>1.0497095716864</v>
       </c>
       <c r="G16">
-        <v>0.9281321562220225</v>
+        <v>0.8259820990464004</v>
       </c>
       <c r="H16">
-        <v>1.096363831534633</v>
+        <v>1.247448305459198</v>
       </c>
       <c r="I16">
-        <v>0.9635793264604577</v>
+        <v>0.9101984391168084</v>
       </c>
       <c r="J16">
-        <v>1.014241451521715</v>
+        <v>1.039216147968002</v>
       </c>
       <c r="K16">
-        <v>0.9698176992801386</v>
+        <v>0.9392661286912012</v>
       </c>
       <c r="L16">
-        <v>1.057161961425036</v>
+        <v>1.143353453977598</v>
       </c>
       <c r="M16">
-        <v>0.9281321562220225</v>
+        <v>0.8259820990464004</v>
       </c>
       <c r="N16">
-        <v>1.036584059414552</v>
+        <v>1.087678911385601</v>
       </c>
       <c r="O16">
-        <v>1.00388543164321</v>
+        <v>1.012762373376001</v>
       </c>
       <c r="P16">
-        <v>1.002542770657524</v>
+        <v>1.010385457907201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.994567703309683</v>
+      </c>
+      <c r="D17">
+        <v>0.9947379466564985</v>
+      </c>
+      <c r="E17">
+        <v>0.9956304470182653</v>
+      </c>
+      <c r="F17">
+        <v>0.9955278668947709</v>
+      </c>
+      <c r="G17">
+        <v>0.994567703309683</v>
+      </c>
+      <c r="H17">
+        <v>0.9947379466564985</v>
+      </c>
+      <c r="I17">
+        <v>0.9947087580526029</v>
+      </c>
+      <c r="J17">
+        <v>0.9941770518350174</v>
+      </c>
+      <c r="K17">
+        <v>0.9943190310001944</v>
+      </c>
+      <c r="L17">
+        <v>0.9960287672887106</v>
+      </c>
+      <c r="M17">
+        <v>0.994567703309683</v>
+      </c>
+      <c r="N17">
+        <v>0.9951841968373819</v>
+      </c>
+      <c r="O17">
+        <v>0.9951159909698044</v>
+      </c>
+      <c r="P17">
+        <v>0.9949621965069679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.004169490518929</v>
+      </c>
+      <c r="D18">
+        <v>0.9829809258565029</v>
+      </c>
+      <c r="E18">
+        <v>0.997742984701611</v>
+      </c>
+      <c r="F18">
+        <v>0.9927421262941738</v>
+      </c>
+      <c r="G18">
+        <v>1.004169490518929</v>
+      </c>
+      <c r="H18">
+        <v>0.9829809258565029</v>
+      </c>
+      <c r="I18">
+        <v>1.000530331442368</v>
+      </c>
+      <c r="J18">
+        <v>0.993145638405828</v>
+      </c>
+      <c r="K18">
+        <v>0.9984732363304983</v>
+      </c>
+      <c r="L18">
+        <v>0.9873534667360533</v>
+      </c>
+      <c r="M18">
+        <v>1.004169490518929</v>
+      </c>
+      <c r="N18">
+        <v>0.990361955279057</v>
+      </c>
+      <c r="O18">
+        <v>0.9944088818428041</v>
+      </c>
+      <c r="P18">
+        <v>0.9946422750357455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.025918366506202</v>
+      </c>
+      <c r="D19">
+        <v>0.9506847712691185</v>
+      </c>
+      <c r="E19">
+        <v>1.005144779151771</v>
+      </c>
+      <c r="F19">
+        <v>0.9853445091929772</v>
+      </c>
+      <c r="G19">
+        <v>1.025918366506202</v>
+      </c>
+      <c r="H19">
+        <v>0.9506847712691185</v>
+      </c>
+      <c r="I19">
+        <v>1.011261434454208</v>
+      </c>
+      <c r="J19">
+        <v>0.986080596595171</v>
+      </c>
+      <c r="K19">
+        <v>1.00530962565929</v>
+      </c>
+      <c r="L19">
+        <v>0.965709638996423</v>
+      </c>
+      <c r="M19">
+        <v>1.025918366506202</v>
+      </c>
+      <c r="N19">
+        <v>0.9779147752104449</v>
+      </c>
+      <c r="O19">
+        <v>0.9917731065300173</v>
+      </c>
+      <c r="P19">
+        <v>0.9919317152281452</v>
       </c>
     </row>
   </sheetData>
